--- a/raw_data/class_data.xlsx
+++ b/raw_data/class_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\learn_R_one_day\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\learn_R_one_day\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="67">
   <si>
     <t>student</t>
   </si>
@@ -225,9 +225,6 @@
   </si>
   <si>
     <t>violet</t>
-  </si>
-  <si>
-    <t>w</t>
   </si>
 </sst>
 </file>
@@ -549,7 +546,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1230,7 +1227,7 @@
         <v>66</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>17</v>
